--- a/Renovacao/Dados_Renovacao/Original/Stefhany Beatriz Carvalho.xlsx
+++ b/Renovacao/Dados_Renovacao/Original/Stefhany Beatriz Carvalho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,12 +625,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>96800</t>
+          <t>15040</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -640,17 +640,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CLAUDINEI GONCALVES DIAS</t>
+          <t>REGINALDO DOS SANTOS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 12/11/2023a12/11/2024</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>53123088739963</t>
+          <t>53103AF8PXWJL8</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97494</t>
+          <t>15122</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -710,17 +710,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RITA DE CASSIA MENDES DE ANDRADE</t>
+          <t>CARLOS ROBERTO TORNISIELLO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>De: 28/10/2023a28/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>53123089262982</t>
+          <t>53103AF8QFH9D0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>400554 - ALEX PEREIRA</t>
+          <t>405152 - ALIANCA J L COR SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97737</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>JOSE ROBERTO MARTORINI</t>
+          <t>ALESSANDRA GEORGIA BERTONCINI BORGES</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>53123089515686</t>
+          <t>53103AJSJYV4X7</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>929 - PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5655</t>
+          <t>5683</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -850,17 +850,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LUIZ ANTONIO ZANUZZO</t>
+          <t>AGNALDO FERRAZ DEGASPARI</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>53103AJSJT2SX6</t>
+          <t>53103AJSJZ2UP8</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5666</t>
+          <t>5689</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,17 +920,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MARIA DULCE MARICONI DA COSTA</t>
+          <t>ANTONIO RONALDO TREVISAN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>53103AJSJVFOH4</t>
+          <t>53103AJSK0D5D7</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -968,14 +968,46 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98520</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>HELENO JOSE DA SILVA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>De: 29/11/2023a29/11/2024</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>53123090525479</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1082,14 +1114,46 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>98714</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ANSELMO DE JESUS AVERSA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>De: 16/11/2023a16/11/2024</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>53123090831650</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1120,14 +1184,46 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>98345</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ARACY CALHADO DE PAULA CANCADO</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>De: 18/11/2023a18/11/2024</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>53123090377232</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1140,7 +1236,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>929 - PIRACICABA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1158,14 +1254,46 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>98440</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MARIA APARECIDA FLABIO</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>De: 19/11/2023a19/11/2024</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>53123090459670</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1188,7 +1316,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>503374 - AVEIRO ADM E COR DE SEGS LTDA</t>
+          <t>400070 - ARGEU BARBOSA DO AMARAL</t>
         </is>
       </c>
     </row>
@@ -1196,14 +1324,46 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>98617</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>RAFAEL CALZOLARI BUCHIDID</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>De: 23/11/2023a23/11/2024</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>53123090691425</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1216,7 +1376,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1226,7 +1386,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>497359 - BARTOLOMEU CORR E ADM DE SEGUROS</t>
+          <t>400070 - ARGEU BARBOSA DO AMARAL</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1406,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>97385</t>
+          <t>98391</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1256,17 +1416,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ADRIANA DE FATIMA NARDI</t>
+          <t>LIVIA STELLA MONTEIRO CRISTOFOLETTI</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53123089196173</t>
+          <t>53123090377690</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1296,7 +1456,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>502752 - BARTOLOMEU CORR E ADM DE SEGUROS</t>
+          <t>400070 - ARGEU BARBOSA DO AMARAL</t>
         </is>
       </c>
     </row>
@@ -1304,46 +1464,14 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>97421</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>MARLI APARECIDA DO NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>53123089196530</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1356,7 +1484,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>929 - PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1366,7 +1494,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>502752 - BARTOLOMEU CORR E ADM DE SEGUROS</t>
+          <t>400070 - ARGEU BARBOSA DO AMARAL</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1532,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>504870 - BENELIFE CORRETORA DE SEGUROS LT</t>
+          <t>503374 - AVEIRO ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -1412,46 +1540,14 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>97719</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>CATIA CRISTINA GARCIA</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>53123089515503</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1464,7 +1560,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1474,7 +1570,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>485048 - BIANCA APARECIDA ZAMPRONIO LUZ</t>
+          <t>497359 - BARTOLOMEU CORR E ADM DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -1489,12 +1585,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>97556</t>
+          <t>15205</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,17 +1600,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FRANCISCA ELIZANGELA CALIXTO</t>
+          <t>MARIA ALICE MUNHOZ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>53123089334886</t>
+          <t>53103AF8QX9OX6</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1544,7 +1640,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>498845 - BLINDASEG CORRETORA DE SEGUROS L</t>
+          <t>502752 - BARTOLOMEU CORR E ADM DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -1552,14 +1648,46 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ANA M M SALVINO DE MARIA SERVICOS ADMINISTRATIVOS</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>De: 10/11/2023a10/11/2024</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>53103AF6K26WH2</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1572,7 +1700,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1582,7 +1710,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>438767 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
+          <t>504870 - BENELIFE CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1748,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>502743 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
+          <t>485048 - BIANCA APARECIDA ZAMPRONIO LUZ</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1768,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>96374</t>
+          <t>98921</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1650,17 +1778,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>RICARDO SCHWEITZER DE PAULA DIAS</t>
+          <t>THAINA SIMIAO RODRIGUES</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>53123088314385</t>
+          <t>53123091097934</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1690,7 +1818,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>445248 - DEX10 CORRETORA DE SEGUROS LTDA</t>
+          <t>498845 - BLINDASEG CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -1698,46 +1826,14 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>97554</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>EDIVALDO SIERRA</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>De: 21/10/2023a21/10/2024</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>53123089334860</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1750,7 +1846,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1760,7 +1856,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>445248 - DEX10 CORRETORA DE SEGUROS LTDA</t>
+          <t>438767 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
         </is>
       </c>
     </row>
@@ -1775,12 +1871,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>97684</t>
+          <t>14875</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1790,17 +1886,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>JONG SUNG LAMBERTI FERREIRA</t>
+          <t>ESTELA APARECIDA MIGLIORINI</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>53123089455853</t>
+          <t>53103AF8OYJE94</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1830,7 +1926,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>445248 - DEX10 CORRETORA DE SEGUROS LTDA</t>
+          <t>502743 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
         </is>
       </c>
     </row>
@@ -1838,14 +1934,46 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15096</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LUIZ CARLOS DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>De: 13/11/2023a13/11/2024</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>53103AF8Q9WN54</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1858,7 +1986,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>929 - PIRACICABA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -1868,7 +1996,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>445248 - DEX10 CORRETORA DE SEGUROS LTDA</t>
+          <t>502743 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
         </is>
       </c>
     </row>
@@ -1883,12 +2011,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>15356</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1898,17 +2026,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CONDOMINIO EDIFICIO BELLINI E MARTINS XIV</t>
+          <t>DOUGLAS HUMBERTO DA COSTA DE PAULA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>53103AF6M92EP9</t>
+          <t>53103AF8RTMTD9</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1938,7 +2066,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>512436 - F D DE OLIVEIRA CORRETAGEM DE SE</t>
+          <t>502743 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
         </is>
       </c>
     </row>
@@ -1953,12 +2081,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>15416</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1968,17 +2096,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CONDOMINIO RESIDENCIAL EDIFICIO LARANJEIRAS</t>
+          <t>VLADEMIR CARLOS CASQUEZ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>53103AF6M9A4H5</t>
+          <t>53103AF8S6HS15</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2008,7 +2136,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>512436 - F D DE OLIVEIRA CORRETAGEM DE SE</t>
+          <t>502743 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
         </is>
       </c>
     </row>
@@ -2023,12 +2151,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>98202</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2038,17 +2166,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CONDOMINIO EDIFICIO RENATA SCARPA</t>
+          <t>ORLANDI JOSE APPARECIDO DOS SANTOS</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>53103AF6M9PK10</t>
+          <t>53123090176709</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2078,7 +2206,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>512436 - F D DE OLIVEIRA CORRETAGEM DE SE</t>
+          <t>445248 - DEX10 CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2221,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>5664</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2108,17 +2236,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CONDOMINIO EDIFICIO ADELLY</t>
+          <t>MANOEL NASCIMENTO DOS REIS</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>53103AF6M9X9T6</t>
+          <t>53103AJSJV08X8</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2138,7 +2266,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>929 - PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2148,7 +2276,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>512436 - F D DE OLIVEIRA CORRETAGEM DE SE</t>
+          <t>445248 - DEX10 CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2291,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>96385</t>
+          <t>2335</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2178,17 +2306,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>IZAKAYA DAISHO LTDA</t>
+          <t>CONDOMINIO EDIFICIO JARDIM DAS CEREJEIRAS II</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>53123088314490</t>
+          <t>53103AF6MAS4X4</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2218,7 +2346,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>513337 - FERNANDO BORTOLLI CORRETORA DE S</t>
+          <t>512436 - F D DE OLIVEIRA CORRETAGEM DE SE</t>
         </is>
       </c>
     </row>
@@ -2233,12 +2361,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>97132</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2248,17 +2376,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RODRIGO RAMALHO DE OLIVEIRA</t>
+          <t>CONDOMINIO EDIFICIO LEONILDA BLUMER</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>53123088991980</t>
+          <t>53103AF6MCHV56</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2288,7 +2416,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>513337 - FERNANDO BORTOLLI CORRETORA DE S</t>
+          <t>512436 - F D DE OLIVEIRA CORRETAGEM DE SE</t>
         </is>
       </c>
     </row>
@@ -2296,46 +2424,14 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>97338</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>CONTALEX ASSESSORIA CONTABIL EIRELI ME</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>De: 24/10/2023a24/10/2024</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>53123089137398</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2366,46 +2462,14 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>96140</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>ADELIA DA SILVA NUNES</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>De: 01/10/2023a01/10/2024</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>53123088072942</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2448,7 +2512,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>96699</t>
+          <t>98693</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2458,22 +2522,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>LEONICE MADALENA DE SOUZA LOBO DE PAULA</t>
+          <t>PAULO CELIO PELEGRIN CARNEIRO</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>53123088661794</t>
+          <t>53123090761105</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2498,7 +2562,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>403893 - HELENE TEZOTO CONS ADM COR SEG</t>
+          <t>492528 - J.D PIVA CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2582,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>96879</t>
+          <t>98368</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2528,17 +2592,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NELIO ANTONIO DE LUCIA</t>
+          <t>ANTONIO CARLOS GASTON POCO IBRAHIM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>De: 29/10/2023a29/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>53123088802754</t>
+          <t>53123090377461</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2568,7 +2632,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>403893 - HELENE TEZOTO CONS ADM COR SEG</t>
+          <t>486226 - JAMIL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2647,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>97899</t>
+          <t>15366</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2598,17 +2662,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MARIANA FRANCINE BIASOTTO DOS SANTOS</t>
+          <t>ROSEMARY AFFI SANTOS COSTA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>53123089731125</t>
+          <t>53103AF8RVRZ52</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2638,7 +2702,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>403893 - HELENE TEZOTO CONS ADM COR SEG</t>
+          <t>486226 - JAMIL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2717,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>97894</t>
+          <t>15378</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2668,17 +2732,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>KARINA SILVEIRA LEITE DE LIMA</t>
+          <t>KINUKO TASHIRO</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>53123089731079</t>
+          <t>53103AF8RYCKH0</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2708,7 +2772,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>492528 - J.D PIVA CORRETORA DE SEGUROS LT</t>
+          <t>486226 - JAMIL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2792,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>96200</t>
+          <t>98076</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2738,22 +2802,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>JAMIL ROBERTO KUSTOVICH STRAIOTO</t>
+          <t>JOSE FELICIANO</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>53123088138633</t>
+          <t>53123089976179</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2778,7 +2842,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>486226 - JAMIL CORRETORA DE SEGUROS LTDA</t>
+          <t>405178 - KFS CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
     </row>
@@ -2798,7 +2862,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>97010</t>
+          <t>97823</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2808,17 +2872,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>KELI APARECIDA FERNANDES RANCHIN</t>
+          <t>CAMILA YUKIE KAWAMOTO</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>53123088917969</t>
+          <t>53123089603151</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2848,7 +2912,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>486226 - JAMIL CORRETORA DE SEGUROS LTDA</t>
+          <t>405178 - KFS CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2932,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>97414</t>
+          <t>98780</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2878,17 +2942,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ROSANA ELENA LOPES</t>
+          <t>PAULO ROBERTO COSTA ALONSO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>53123089196467</t>
+          <t>53123090898577</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2918,7 +2982,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>486226 - JAMIL CORRETORA DE SEGUROS LTDA</t>
+          <t>405178 - KFS CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
     </row>
@@ -2938,7 +3002,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>96215</t>
+          <t>98430</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2948,17 +3012,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EDILENE SAYURI MIYAMOTO FORTES WEBER</t>
+          <t>MARCOS JOSE PONSONE</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>53123088138781</t>
+          <t>53123090378085</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2996,46 +3060,14 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>96669</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>RAMPONI TRANSPORTE E DISTRIBUICAO LTDA</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>De: 08/10/2023a08/10/2024</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>53123088661492</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3058,7 +3090,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>405178 - KFS CORRETORA DE SEGUROS LTDA.</t>
+          <t>480718 - KJ CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3110,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>96994</t>
+          <t>98030</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3088,17 +3120,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MILTON SEBASTIAO PEDROSO</t>
+          <t>FERNANDO LUIZ CIOLETTI 1606</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>53123088917802</t>
+          <t>53123089912006</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3128,7 +3160,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>405178 - KFS CORRETORA DE SEGUROS LTDA.</t>
+          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3180,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>97449</t>
+          <t>97875</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3158,17 +3190,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>OXIVALE COMERCIO DE GASES LTDA ME</t>
+          <t>SENIVALDO SILVA BRANDAO 1606</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>53123089262532</t>
+          <t>53123089674334</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3198,7 +3230,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>405178 - KFS CORRETORA DE SEGUROS LTDA.</t>
+          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3250,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>97381</t>
+          <t>98425</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3228,17 +3260,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MARCELO APARECIDO DE VITO</t>
+          <t>PAMELA ROBERTA BENETON</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>53123089196130</t>
+          <t>53123090378034</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3268,7 +3300,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>480718 - KJ CORRETORA DE SEGUROS LTDA</t>
+          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3320,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>97318</t>
+          <t>98876</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3298,17 +3330,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>JORGE LUIZ ELIAS NERI</t>
+          <t>REBECA LARISSA SOBRAL DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>53123089137193</t>
+          <t>53123091025097</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3338,7 +3370,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>480718 - KJ CORRETORA DE SEGUROS LTDA</t>
+          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3390,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>96649</t>
+          <t>97954</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3368,17 +3400,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ADAILTON SOARES DA SILVA</t>
+          <t>IRMANDADE DA SANTA CASA DE MISERICORDIA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>De: 07/10/2023a07/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>53123088661298</t>
+          <t>53123089791624</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3408,7 +3440,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
+          <t>510704 - M BUCK CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3423,12 +3455,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>98203</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3438,17 +3470,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>LEVE MAIS TODO DIA 78 LTDA</t>
+          <t>IRMANDADE DA SANTA CASA DE MISERICORDIA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>53103AF6JU9EP2</t>
+          <t>53123090176717</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3478,7 +3510,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
+          <t>510704 - M BUCK CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3486,46 +3518,14 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>97074</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>REMOMIX RODRIGUES CAVALCANTE LTDA</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>De: 16/10/2023a16/10/2024</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>53123088991409</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
+          <t>440020 - MAFEROLI CORR. SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -3556,46 +3556,14 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>917</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>GRANDO INCORPORADORA LTDA</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>53103AF6K3H754</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3608,7 +3576,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>929 - PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3618,7 +3586,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
+          <t>440020 - MAFEROLI CORR. SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3601,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14682</t>
+          <t>97817</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3648,17 +3616,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ERIC TAVARES DA SILVA</t>
+          <t>ANTONIO HELIO MARIANO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>53103AF8NT6750</t>
+          <t>53123089603097</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3688,7 +3656,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
+          <t>445572 - NC CHAVES CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -3703,12 +3671,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>15352</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3718,17 +3686,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CESAR FERNANDES</t>
+          <t>ANDRE MOREIRA DE LIMA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>53103AF6K7RIP1</t>
+          <t>53103AF8RSRY91</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3758,7 +3726,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
+          <t>445572 - NC CHAVES CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -3766,14 +3734,46 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>97747</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ROSELI LARA MARTINS AGUIRRA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>De: 03/11/2023a03/11/2024</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>53123089515783</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>510704 - M BUCK CORRETORA DE SEGUROS LTDA</t>
+          <t>401185 - PEDRO TADEU CHRIST</t>
         </is>
       </c>
     </row>
@@ -3811,12 +3811,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>97138</t>
+          <t>15412</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3826,17 +3826,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CRISTINA DE FREITAS HARDER</t>
+          <t>MARIA ESTELA BENTO</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>De: 21/10/2023a21/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>53123088992049</t>
+          <t>53103AF8S5MWX0</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>440020 - MAFEROLI CORR. SEGUROS LTDA ME</t>
+          <t>512338 - PL4 CORRETORA DE SEGS E SERVICOS</t>
         </is>
       </c>
     </row>
@@ -3874,14 +3874,46 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>15004</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>JOAO BATISTA DA SILVA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>De: 09/11/2023a09/11/2024</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>53103AF8PQ6RL8</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3894,7 +3926,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>929 - PIRACICABA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3904,7 +3936,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>440020 - MAFEROLI CORR. SEGUROS LTDA ME</t>
+          <t>500182 - PRIME RISKS CORRETORA DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3956,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>96116</t>
+          <t>98359</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3934,17 +3966,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>JOSE VALMARY BATAGLINI FILHO</t>
+          <t>MARCELO MENEZES ROHLOFF</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>53123088072705</t>
+          <t>53123090377372</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3974,7 +4006,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>445572 - NC CHAVES CORRETORA DE SEGUROS L</t>
+          <t>500182 - PRIME RISKS CORRETORA DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -3994,7 +4026,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>97733</t>
+          <t>98414</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4004,17 +4036,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>JOAO SERGIO FEDSCHENKO</t>
+          <t>ANGELA CRISTINA ANTUNES DE ARRUDA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>53123089515643</t>
+          <t>53123090377925</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4044,7 +4076,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>445572 - NC CHAVES CORRETORA DE SEGUROS L</t>
+          <t>500182 - PRIME RISKS CORRETORA DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4091,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>96670</t>
+          <t>15177</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4074,17 +4106,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>APARECIDO DONIZETTI GOUVEA</t>
+          <t>WALDIR PEREIRA DA SILVA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>53123088661506</t>
+          <t>53103AF8QR9N50</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4114,7 +4146,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>401185 - PEDRO TADEU CHRIST</t>
+          <t>505708 - RENATA CORRETORA DE SEGUROS SORO</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4166,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14631</t>
+          <t>15299</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4144,17 +4176,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ANDRE LUIS MISAEL DA SILVA</t>
+          <t>SONIA MIYOSHI FUIN</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>53103AF8NI8OH3</t>
+          <t>53103AF8RHF011</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4184,7 +4216,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>401185 - PEDRO TADEU CHRIST</t>
+          <t>505708 - RENATA CORRETORA DE SEGUROS SORO</t>
         </is>
       </c>
     </row>
@@ -4199,12 +4231,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14180</t>
+          <t>98405</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4214,17 +4246,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>WILSON ALVES LOPES JUNIOR</t>
+          <t>CRISTINA MATOS BOLZAN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>53103AF8KTKQP0</t>
+          <t>53123090377836</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4254,7 +4286,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>512338 - PL4 CORRETORA DE SEGUROS EIRELI</t>
+          <t>404299 - RRPM COR DE SEGS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -4262,46 +4294,14 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>96576</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>ANGELA CRISTINA ANTUNES DE ARRUDA</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>De: 10/10/2023a10/10/2024</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>53123088523820</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>500182 - PRIME RISKS CORRETORA DE SEG LTD</t>
+          <t>497649 - RWM CORR E ADM DE SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14538</t>
+          <t>98011</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4354,22 +4354,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SARA ALVARENGA DA SILVA</t>
+          <t>LAERCIO LAUREANO FERREIRA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>53103AF8MYB350</t>
+          <t>53123089843950</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>500182 - PRIME RISKS CORRETORA DE SEG LTD</t>
+          <t>502630 - RWM CORR E ADM DE SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>14540</t>
+          <t>15067</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4424,17 +4424,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LEANDRO APARECIDO DA SILVA RIBEIRO</t>
+          <t>SONIA DE PAULA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>53103AF8MYQIP7</t>
+          <t>53103AF8Q3OVL7</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>500182 - PRIME RISKS CORRETORA DE SEG LTD</t>
+          <t>502630 - RWM CORR E ADM DE SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -4472,46 +4472,14 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>14558</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>REGINALDO OGUSUKU</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>De: 16/10/2023a16/10/2024</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>53103AF8N2LEP8</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4534,7 +4502,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>500182 - PRIME RISKS CORRETORA DE SEG LTD</t>
+          <t>404261 - SIA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4530,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>929 - PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4572,7 +4540,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>505708 - RENATA CORRETORA DE SEGUROS SORO</t>
+          <t>404261 - SIA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4580,46 +4548,14 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>97260</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>CRISLEINE SOARES</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>53123089060298</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4632,7 +4568,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -4642,7 +4578,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>404299 - RRPM COR DE SEGS LTDA ME</t>
+          <t>488624 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4598,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>14716</t>
+          <t>14734</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4672,17 +4608,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MARIANA BARBOSA ARAUJO LUZ</t>
+          <t>VANDERLEI TARIFA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>De: 28/10/2023a28/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>53103AF8O0GJL3</t>
+          <t>53103AF8O4BFL4</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4712,7 +4648,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>404299 - RRPM COR DE SEGS LTDA ME</t>
+          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -4720,14 +4656,46 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>98013</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>DANIEL DA SILVA FOLLADOR</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>53123089843977</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4740,7 +4708,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -4750,7 +4718,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>497649 - RWM CORR E ADM DE SEG LTDA</t>
+          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -4770,7 +4738,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>97098</t>
+          <t>98910</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4780,22 +4748,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>LAR SAO VICENTE DE PAULO</t>
+          <t>MENACON CONSTRUCOES</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 26/11/2023a26/11/2024</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>53123088991646</t>
+          <t>53123091097829</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4820,7 +4788,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>502630 - RWM CORR E ADM DE SEG LTDA</t>
+          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4808,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>96901</t>
+          <t>98508</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4850,17 +4818,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>IBRAHIM ABRAHAO CHAIM</t>
+          <t>MAURO ANTONINI</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>53123088864431</t>
+          <t>53123090525355</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4890,7 +4858,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>404261 - SIA CORRETORA DE SEGUROS LTDA</t>
+          <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -4898,46 +4866,14 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>97748</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>CRISTIANE DE FATIMA SEVERINO</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>53123089515791</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4950,7 +4886,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>929 - PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -4960,7 +4896,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>404261 - SIA CORRETORA DE SEGUROS LTDA</t>
+          <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4911,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>97673</t>
+          <t>14920</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4990,17 +4926,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MARISA ANDREA SEVERINO DEGASPARI</t>
+          <t>IVAN APARECIDO RODRIGUES DE JESUS</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>53123089455748</t>
+          <t>53103AF8P86M90</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5030,7 +4966,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>404261 - SIA CORRETORA DE SEGUROS LTDA</t>
+          <t>493800 - VLR SEGS E ASSISTENCIAS LTDA</t>
         </is>
       </c>
     </row>
@@ -5038,14 +4974,46 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CASSIO HENRIQUE BOVO ELETRICA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>De: 24/11/2023a24/11/2024</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>53103AF6K91TD4</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5058,7 +5026,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>929 - PIRACICABA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5068,7 +5036,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>404261 - SIA CORRETORA DE SEGUROS LTDA</t>
+          <t>405004 - VOLBA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -5076,14 +5044,46 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>98444</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CONCRETIZA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>De: 14/11/2023a14/11/2024</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>53123090459719</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>488624 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
+          <t>404516 - W CORRETORA E ADMINISTRADORA DE</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>96198</t>
+          <t>98946</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5136,22 +5136,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CLEIDE FERREIRA BITENCOURT</t>
+          <t>CICERO JOSE DOS SANTOS NASCIMENTO</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a01/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>53123088138617</t>
+          <t>53123091098183</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
+          <t>404516 - W CORRETORA E ADMINISTRADORA DE</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>97208</t>
+          <t>98634</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5206,17 +5206,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>RICARDO DA ROCHA PEREIRA</t>
+          <t>NEUZA BICALHO CEDRAN</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>53123089059770</t>
+          <t>53123090691590</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
+          <t>506500 - WRK PLURAL CORR E ADM DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -5261,12 +5261,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14724</t>
+          <t>98553</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5276,17 +5276,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DANIEL BITTENCOURT VIANA</t>
+          <t>SANTO FRANCISCO DE ASSIS ROCHA</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>53103AF8O269T8</t>
+          <t>53123090578874</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5315,1412 +5315,6 @@
         </is>
       </c>
       <c r="N79" t="inlineStr">
-        <is>
-          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>14726</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>DJALMA MONTEIRO VIEIRA</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>53103AF8O2LPD4</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>14728</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>DJALMA MONTEIRO VIEIRA</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>53103AF8O314X8</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>14729</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>DJALMA MONTEIRO VIEIRA</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>53103AF8O38UP7</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>97628</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>CLEIDE FERREIRA BITENCOURT</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>De: 28/10/2023a28/10/2024</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>53123089402113</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>502638 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>96251</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>LILIA MARIA CARDOSO ESQUIERRO</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>De: 03/10/2023a03/10/2024</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>53123088193910</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>96306</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>ERICA MARIA CASARIN</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>De: 04/10/2023a04/10/2024</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>53123088252088</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>97052</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>FERNANDO DA SILVA REIS</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>De: 22/10/2023a22/10/2024</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>53123088918388</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>97120</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>FERNANDO DA SILVA REIS</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>De: 22/10/2023a22/10/2024</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>53123088991867</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>97652</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>GRAZIELA APARECIDO LUQUIARI</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>De: 30/10/2023a30/10/2024</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>53123089402350</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>14813</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>JOSE MAZZERO</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>53103AF8OL9017</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>929 - PIRACICABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>493800 - VLR SEGS E ASSISTENCIAS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>14344</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>MARCOS ALFONSI</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>De: 09/10/2023a09/10/2024</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>53103AF8LSQ693</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>405004 - VOLBA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>14618</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>JOSE TADEU MATHEUS</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>53103AF8NFGDD0</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>405004 - VOLBA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>97598</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>ANA MARIA NUNES MARTINS</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>53123089401818</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>405004 - VOLBA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>97623</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>VICTOR YOSHIO WATANABE</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>53123089402067</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>405004 - VOLBA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>96530</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>CAMILA DA SILVA TOLEDO RADIGUIERI</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>De: 09/10/2023a09/10/2024</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>53123088461256</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>404516 - W CORRETORA E ADMINISTRADORA DE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>97220</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>ODELIA DE OLIVEIRA CACIQUE</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>De: 08/10/2023a08/10/2024</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>53123089059893</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>506500 - WRK PLURAL CORR E ADM DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>97241</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>JAMES ROBERTO DE SOUZA THEODORO LEITE</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>De: 17/10/2023a17/10/2024</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>53123089060107</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>506500 - WRK PLURAL CORR E ADM DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>96716</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>JOAO VANDERLEI MARTINS JUNIOR</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>De: 19/10/2023a19/10/2024</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>53123088661964</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>506500 - WRK PLURAL CORR E ADM DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>96864</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>IRANI FRANCISCA GIORDANO TALPO</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>De: 19/10/2023a19/10/2024</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>53123088802606</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>377.163.818-65 - Stefhany Beatriz Carvalho</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
         <is>
           <t>506500 - WRK PLURAL CORR E ADM DE SEGUROS</t>
         </is>
